--- a/Data/materiales_lic_2_prices.xlsx
+++ b/Data/materiales_lic_2_prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>descripcion</t>
   </si>
@@ -31,28 +31,46 @@
     <t>importe</t>
   </si>
   <si>
-    <t>Montaje de tubería PE100, ø 25 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 32 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 40 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 50 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 63 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 75 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>Montaje de tubería PE100, ø 90 mm, 1,0 MPa</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>Montaje de tubería PE100, ø 25 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 32 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 40 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 50 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 63 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 75 mm</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 90 mm</t>
+  </si>
+  <si>
+    <t>121450</t>
+  </si>
+  <si>
+    <t>90202</t>
+  </si>
+  <si>
+    <t>67386</t>
+  </si>
+  <si>
+    <t>67383</t>
+  </si>
+  <si>
+    <t>32687</t>
+  </si>
+  <si>
+    <t>12050</t>
+  </si>
+  <si>
+    <t>7956</t>
   </si>
   <si>
     <t>unidades</t>
@@ -444,7 +462,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1.27</v>
@@ -458,10 +476,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -475,10 +493,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1.78</v>
@@ -492,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -509,10 +527,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2.29</v>
@@ -526,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2.51</v>
@@ -543,10 +561,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2.79</v>

--- a/Data/materiales_lic_2_prices.xlsx
+++ b/Data/materiales_lic_2_prices.xlsx
@@ -52,28 +52,28 @@
     <t>Montaje de tubería PE100, ø 90 mm</t>
   </si>
   <si>
-    <t>121450</t>
-  </si>
-  <si>
-    <t>90202</t>
-  </si>
-  <si>
-    <t>67386</t>
-  </si>
-  <si>
-    <t>67383</t>
-  </si>
-  <si>
-    <t>32687</t>
-  </si>
-  <si>
-    <t>12050</t>
-  </si>
-  <si>
-    <t>7956</t>
-  </si>
-  <si>
-    <t>unidades</t>
+    <t>121450 metros</t>
+  </si>
+  <si>
+    <t>90202 metros</t>
+  </si>
+  <si>
+    <t>67386 metros</t>
+  </si>
+  <si>
+    <t>67383 metros</t>
+  </si>
+  <si>
+    <t>32687 metros</t>
+  </si>
+  <si>
+    <t>12050 metros</t>
+  </si>
+  <si>
+    <t>7956 metros</t>
+  </si>
+  <si>
+    <t>metros</t>
   </si>
 </sst>
 </file>
